--- a/data/input/testInput9.xlsx
+++ b/data/input/testInput9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\GitHub\ExcelDataProcessing\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAA05A8-5A38-4C82-A240-A0FC315E9169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D96955D-DB99-4563-BA8F-1D8C803EFAD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +102,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,8 +129,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -131,11 +156,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -173,25 +333,125 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
   </cellXfs>
@@ -477,12 +737,14 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -501,10 +763,10 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -545,710 +807,710 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="A2" s="48">
+        <v>43612</v>
+      </c>
+      <c r="B2" s="49">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="50">
         <v>3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="50">
         <v>7</v>
       </c>
-      <c r="F2" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="G2" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H2" s="4">
-        <v>8</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="F2" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G2" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H2" s="51">
+        <v>8</v>
+      </c>
+      <c r="I2" s="52">
         <v>57</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="52">
         <v>47</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="52">
         <v>75</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="52">
         <v>436</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="52">
         <v>355</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="50">
         <v>27</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="52">
         <v>597</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="50">
         <v>17</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="50">
         <v>8.4</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="50">
         <v>10.8</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="53">
         <v>3629.3408514020189</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="A3" s="48">
+        <v>43612</v>
+      </c>
+      <c r="B3" s="49">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="50">
         <v>4</v>
       </c>
-      <c r="E3" s="3">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="G3" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H3" s="4">
-        <v>8</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="E3" s="50">
+        <v>8</v>
+      </c>
+      <c r="F3" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G3" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H3" s="51">
+        <v>8</v>
+      </c>
+      <c r="I3" s="52">
         <v>101</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="52">
         <v>87</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="52">
         <v>137</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="52">
         <v>826</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="52">
         <v>703</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="50">
         <v>18</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="52">
         <v>1158</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="50">
         <v>11</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="50">
         <v>4.5</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="50">
         <v>7.2</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="53">
         <v>6926.3033895101717</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="A4" s="48">
+        <v>43612</v>
+      </c>
+      <c r="B4" s="49">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="50">
         <v>4</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="50">
         <v>9</v>
       </c>
-      <c r="F4" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="G4" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H4" s="4">
-        <v>8</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="F4" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G4" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H4" s="51">
+        <v>8</v>
+      </c>
+      <c r="I4" s="52">
         <v>103</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="52">
         <v>87</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="52">
         <v>137</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="52">
         <v>844</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="52">
         <v>703</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="50">
         <v>18</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="52">
         <v>1158</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="50">
         <v>11</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="50">
         <v>4.5</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="50">
         <v>7.2</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="53">
         <v>6733.9178936653188</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="A5" s="48">
+        <v>43612</v>
+      </c>
+      <c r="B5" s="49">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="50">
         <v>4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="50">
         <v>10</v>
       </c>
-      <c r="F5" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H5" s="4">
-        <v>8</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="F5" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G5" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H5" s="51">
+        <v>8</v>
+      </c>
+      <c r="I5" s="52">
         <v>107</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="52">
         <v>87</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="52">
         <v>137</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="52">
         <v>882</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="52">
         <v>703</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="50">
         <v>18</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="52">
         <v>1158</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="50">
         <v>11</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="50">
         <v>4.5</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="50">
         <v>7.2</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="53">
         <v>6374.5793716705211</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="A6" s="48">
+        <v>43612</v>
+      </c>
+      <c r="B6" s="49">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="50">
         <v>4</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="50">
         <v>11</v>
       </c>
-      <c r="F6" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H6" s="4">
-        <v>8</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="F6" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G6" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H6" s="51">
+        <v>8</v>
+      </c>
+      <c r="I6" s="52">
         <v>108</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="52">
         <v>87</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="52">
         <v>137</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="52">
         <v>891</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="52">
         <v>703</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="50">
         <v>18</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="52">
         <v>1158</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="50">
         <v>11</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="50">
         <v>4.5</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="50">
         <v>7.2</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="53">
         <v>6289.6802011296068</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="48">
+        <v>43612</v>
+      </c>
+      <c r="B7" s="49">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="50">
         <v>4</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="50">
         <v>12</v>
       </c>
-      <c r="F7" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H7" s="4">
-        <v>8</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="F7" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G7" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H7" s="51">
+        <v>8</v>
+      </c>
+      <c r="I7" s="52">
         <v>109</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="52">
         <v>87</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="52">
         <v>137</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="52">
         <v>901</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="52">
         <v>703</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="50">
         <v>18</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="52">
         <v>1158</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="50">
         <v>11</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="50">
         <v>4.5</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="50">
         <v>7.2</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="53">
         <v>6206.6398309515798</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="A8" s="48">
+        <v>43612</v>
+      </c>
+      <c r="B8" s="49">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="50">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="50">
         <v>13</v>
       </c>
-      <c r="F8" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H8" s="4">
-        <v>8</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="F8" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G8" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H8" s="51">
+        <v>8</v>
+      </c>
+      <c r="I8" s="52">
         <v>111</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="52">
         <v>87</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="52">
         <v>137</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="52">
         <v>920</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="52">
         <v>703</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="50">
         <v>18</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="52">
         <v>1158</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="50">
         <v>11</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="50">
         <v>4.5</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="50">
         <v>7.2</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="53">
         <v>6045.9212946598545</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="A9" s="48">
+        <v>43612</v>
+      </c>
+      <c r="B9" s="49">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="50">
         <v>5</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="50">
         <v>14</v>
       </c>
-      <c r="F9" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H9" s="4">
-        <v>8</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="F9" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G9" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H9" s="51">
+        <v>8</v>
+      </c>
+      <c r="I9" s="52">
         <v>130</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="52">
         <v>87</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="52">
         <v>137</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="52">
         <v>1093</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="52">
         <v>703</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="50">
         <v>18</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="52">
         <v>1158</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="50">
         <v>11</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="50">
         <v>4.5</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="50">
         <v>7.2</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="53">
         <v>4866.2958617410304</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="A10" s="48">
+        <v>43612</v>
+      </c>
+      <c r="B10" s="49">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="50">
         <v>6</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="50">
         <v>15</v>
       </c>
-      <c r="F10" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H10" s="4">
-        <v>8</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="F10" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G10" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H10" s="51">
+        <v>8</v>
+      </c>
+      <c r="I10" s="52">
         <v>135</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="52">
         <v>87</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="52">
         <v>137</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="52">
         <v>1137</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="52">
         <v>703</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="50">
         <v>18</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="52">
         <v>1158</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="50">
         <v>11</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="50">
         <v>4.5</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="50">
         <v>7.2</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="53">
         <v>4633.7627608227904</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="A11" s="48">
+        <v>43612</v>
+      </c>
+      <c r="B11" s="49">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="50">
         <v>6</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="50">
         <v>16</v>
       </c>
-      <c r="F11" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="G11" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H11" s="4">
-        <v>8</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="F11" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G11" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H11" s="51">
+        <v>8</v>
+      </c>
+      <c r="I11" s="52">
         <v>136</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="52">
         <v>87</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="52">
         <v>137</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="52">
         <v>1146</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="52">
         <v>703</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="50">
         <v>18</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="52">
         <v>1158</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="50">
         <v>11</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="50">
         <v>4.5</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="50">
         <v>7.2</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="53">
         <v>4589.4863971562518</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="A12" s="48">
+        <v>43612</v>
+      </c>
+      <c r="B12" s="49">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="50">
         <v>6</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="50">
         <v>17</v>
       </c>
-      <c r="F12" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H12" s="4">
-        <v>8</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="F12" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G12" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H12" s="51">
+        <v>8</v>
+      </c>
+      <c r="I12" s="52">
         <v>141</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="52">
         <v>137</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="52">
         <v>160</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="52">
         <v>1191</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="52">
         <v>1158</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="50">
         <v>11</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="52">
         <v>1368</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="50">
         <v>13</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="50">
         <v>5.8</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="50">
         <v>7.3</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="53">
         <v>12868.254392857731</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="A13" s="48">
+        <v>43612</v>
+      </c>
+      <c r="B13" s="49">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="50">
         <v>6</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="50">
         <v>18</v>
       </c>
-      <c r="F13" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="G13" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H13" s="4">
-        <v>8</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="F13" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G13" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H13" s="51">
+        <v>8</v>
+      </c>
+      <c r="I13" s="52">
         <v>145</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="52">
         <v>137</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="52">
         <v>160</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="52">
         <v>1227</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="52">
         <v>1158</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="50">
         <v>11</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="52">
         <v>1368</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="50">
         <v>13</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="50">
         <v>5.8</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="50">
         <v>7.3</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="53">
         <v>12396.088750157891</v>
       </c>
     </row>
@@ -1268,10 +1530,10 @@
       <c r="E14" s="9">
         <v>19</v>
       </c>
-      <c r="F14" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F14" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G14" s="43">
         <v>3.9</v>
       </c>
       <c r="H14" s="10">
@@ -1327,10 +1589,10 @@
       <c r="E15" s="9">
         <v>20</v>
       </c>
-      <c r="F15" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="F15" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G15" s="43">
         <v>3.9</v>
       </c>
       <c r="H15" s="10">
@@ -1386,10 +1648,10 @@
       <c r="E16" s="9">
         <v>21</v>
       </c>
-      <c r="F16" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F16" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G16" s="43">
         <v>3.9</v>
       </c>
       <c r="H16" s="10">
@@ -1445,10 +1707,10 @@
       <c r="E17" s="9">
         <v>22</v>
       </c>
-      <c r="F17" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="F17" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G17" s="43">
         <v>4.9000000000000004</v>
       </c>
       <c r="H17" s="10">
@@ -1504,10 +1766,10 @@
       <c r="E18" s="9">
         <v>23</v>
       </c>
-      <c r="F18" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="G18" s="9">
+      <c r="F18" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G18" s="43">
         <v>4.9000000000000004</v>
       </c>
       <c r="H18" s="10">
@@ -1563,10 +1825,10 @@
       <c r="E19" s="9">
         <v>24</v>
       </c>
-      <c r="F19" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="F19" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G19" s="43">
         <v>4.9000000000000004</v>
       </c>
       <c r="H19" s="10">
@@ -1622,10 +1884,10 @@
       <c r="E20" s="9">
         <v>25</v>
       </c>
-      <c r="F20" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="F20" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G20" s="43">
         <v>4.9000000000000004</v>
       </c>
       <c r="H20" s="10">
@@ -1681,10 +1943,10 @@
       <c r="E21" s="9">
         <v>26</v>
       </c>
-      <c r="F21" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="G21" s="9">
+      <c r="F21" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G21" s="43">
         <v>4.9000000000000004</v>
       </c>
       <c r="H21" s="10">
@@ -1740,10 +2002,10 @@
       <c r="E22" s="9">
         <v>27</v>
       </c>
-      <c r="F22" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="G22" s="9">
+      <c r="F22" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G22" s="43">
         <v>4.9000000000000004</v>
       </c>
       <c r="H22" s="10">
@@ -1784,2303 +2046,2303 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="A23" s="48">
+        <v>43612</v>
+      </c>
+      <c r="B23" s="49">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="50">
         <v>10</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="50">
         <v>28</v>
       </c>
-      <c r="F23" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="G23" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H23" s="4">
-        <v>8</v>
-      </c>
-      <c r="I23" s="5">
+      <c r="F23" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G23" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H23" s="51">
+        <v>8</v>
+      </c>
+      <c r="I23" s="52">
         <v>224</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="52">
         <v>160</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="52">
         <v>234</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="52">
         <v>1967</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="52">
         <v>1368</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="50">
         <v>13</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="52">
         <v>2055</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="50">
         <v>26</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="50">
         <v>3.5</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="50">
         <v>5.2</v>
       </c>
-      <c r="S23" s="6">
+      <c r="S23" s="53">
         <v>10080.031996307938</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="A24" s="48">
+        <v>43612</v>
+      </c>
+      <c r="B24" s="49">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="50">
         <v>10</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="50">
         <v>29</v>
       </c>
-      <c r="F24" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="G24" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H24" s="4">
-        <v>8</v>
-      </c>
-      <c r="I24" s="5">
+      <c r="F24" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G24" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H24" s="51">
+        <v>8</v>
+      </c>
+      <c r="I24" s="52">
         <v>226</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="52">
         <v>160</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="52">
         <v>234</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="52">
         <v>1985</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="52">
         <v>1368</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="50">
         <v>13</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="52">
         <v>2055</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="50">
         <v>26</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="50">
         <v>3.5</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="50">
         <v>5.2</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S24" s="53">
         <v>9970.0967403495088</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="A25" s="48">
+        <v>43612</v>
+      </c>
+      <c r="B25" s="49">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="50">
         <v>10</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="50">
         <v>30</v>
       </c>
-      <c r="F25" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="G25" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H25" s="4">
-        <v>8</v>
-      </c>
-      <c r="I25" s="5">
+      <c r="F25" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G25" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H25" s="51">
+        <v>8</v>
+      </c>
+      <c r="I25" s="52">
         <v>227</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="52">
         <v>160</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="52">
         <v>234</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="52">
         <v>1994</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="52">
         <v>1368</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="50">
         <v>13</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="52">
         <v>2055</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="50">
         <v>26</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="50">
         <v>3.5</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R25" s="50">
         <v>5.2</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S25" s="53">
         <v>9918.0051652061902</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="A26" s="48">
+        <v>43612</v>
+      </c>
+      <c r="B26" s="49">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="50">
         <v>11</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="50">
         <v>31</v>
       </c>
-      <c r="F26" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="G26" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H26" s="4">
-        <v>8</v>
-      </c>
-      <c r="I26" s="5">
+      <c r="F26" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G26" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H26" s="51">
+        <v>8</v>
+      </c>
+      <c r="I26" s="52">
         <v>239</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="52">
         <v>234</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="52">
         <v>315</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="52">
         <v>2101</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="52">
         <v>2055</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="50">
         <v>26</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="52">
         <v>2807</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="50">
         <v>68</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="50">
         <v>6.6</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="50">
         <v>9</v>
       </c>
-      <c r="S26" s="6">
+      <c r="S26" s="53">
         <v>22041.492441999679</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="3">
+    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="48">
+        <v>43612</v>
+      </c>
+      <c r="B27" s="49">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="50">
         <v>12</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="50">
         <v>32</v>
       </c>
-      <c r="F27" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="G27" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H27" s="4">
-        <v>8</v>
-      </c>
-      <c r="I27" s="5">
+      <c r="F27" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="G27" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H27" s="51">
+        <v>8</v>
+      </c>
+      <c r="I27" s="52">
         <v>248</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="52">
         <v>234</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="52">
         <v>315</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="52">
         <v>2182</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="52">
         <v>2055</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="50">
         <v>26</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="52">
         <v>2807</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="50">
         <v>68</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="50">
         <v>6.6</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="50">
         <v>9</v>
       </c>
-      <c r="S27" s="6">
+      <c r="S27" s="53">
         <v>21072.678289814554</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="A28" s="27">
+        <v>43612</v>
+      </c>
+      <c r="B28" s="28">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="29">
         <v>3</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="29">
         <v>5</v>
       </c>
-      <c r="F28" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G28" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H28" s="4">
-        <v>8</v>
-      </c>
-      <c r="I28" s="5">
+      <c r="F28" s="44">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G28" s="44">
+        <v>3.9</v>
+      </c>
+      <c r="H28" s="30">
+        <v>8</v>
+      </c>
+      <c r="I28" s="31">
         <v>101</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="31">
         <v>87</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="31">
         <v>137</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="31">
         <v>826</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="31">
         <v>703</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="29">
         <v>18</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="31">
         <v>1158</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="29">
         <v>11</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q28" s="29">
         <v>4.5</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R28" s="29">
         <v>7.2</v>
       </c>
-      <c r="S28" s="6">
+      <c r="S28" s="32">
         <v>6926.3033895101717</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="A29" s="33">
+        <v>43612</v>
+      </c>
+      <c r="B29" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="20">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="20">
         <v>6</v>
       </c>
-      <c r="F29" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G29" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H29" s="4">
-        <v>8</v>
-      </c>
-      <c r="I29" s="5">
+      <c r="F29" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G29" s="45">
+        <v>3.9</v>
+      </c>
+      <c r="H29" s="21">
+        <v>8</v>
+      </c>
+      <c r="I29" s="22">
         <v>103</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="22">
         <v>87</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="22">
         <v>137</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="22">
         <v>844</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="22">
         <v>703</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="20">
         <v>18</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="22">
         <v>1158</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="20">
         <v>11</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="20">
         <v>4.5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="20">
         <v>7.2</v>
       </c>
-      <c r="S29" s="6">
+      <c r="S29" s="34">
         <v>6733.9178936653188</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="A30" s="33">
+        <v>43612</v>
+      </c>
+      <c r="B30" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="20">
         <v>3</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="20">
         <v>7</v>
       </c>
-      <c r="F30" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G30" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H30" s="4">
-        <v>8</v>
-      </c>
-      <c r="I30" s="5">
+      <c r="F30" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G30" s="45">
+        <v>3.9</v>
+      </c>
+      <c r="H30" s="21">
+        <v>8</v>
+      </c>
+      <c r="I30" s="22">
         <v>107</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="22">
         <v>87</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="22">
         <v>137</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="22">
         <v>882</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="22">
         <v>703</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="20">
         <v>18</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="22">
         <v>1158</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="20">
         <v>11</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q30" s="20">
         <v>4.5</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R30" s="20">
         <v>7.2</v>
       </c>
-      <c r="S30" s="6">
+      <c r="S30" s="34">
         <v>6374.5793716705211</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="A31" s="33">
+        <v>43612</v>
+      </c>
+      <c r="B31" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="20">
         <v>3</v>
       </c>
-      <c r="E31" s="3">
-        <v>8</v>
-      </c>
-      <c r="F31" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G31" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H31" s="4">
-        <v>8</v>
-      </c>
-      <c r="I31" s="5">
+      <c r="E31" s="20">
+        <v>8</v>
+      </c>
+      <c r="F31" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G31" s="45">
+        <v>3.9</v>
+      </c>
+      <c r="H31" s="21">
+        <v>8</v>
+      </c>
+      <c r="I31" s="22">
         <v>109</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="22">
         <v>87</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="22">
         <v>137</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="22">
         <v>901</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="22">
         <v>703</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="20">
         <v>18</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="22">
         <v>1158</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="20">
         <v>11</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q31" s="20">
         <v>4.5</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R31" s="20">
         <v>7.2</v>
       </c>
-      <c r="S31" s="6">
+      <c r="S31" s="34">
         <v>6206.6398309515798</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B32" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="A32" s="33">
+        <v>43612</v>
+      </c>
+      <c r="B32" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="20">
         <v>3</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="20">
         <v>9</v>
       </c>
-      <c r="F32" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G32" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H32" s="4">
-        <v>8</v>
-      </c>
-      <c r="I32" s="5">
+      <c r="F32" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G32" s="45">
+        <v>3.9</v>
+      </c>
+      <c r="H32" s="21">
+        <v>8</v>
+      </c>
+      <c r="I32" s="22">
         <v>111</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="22">
         <v>87</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="22">
         <v>137</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="22">
         <v>920</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="22">
         <v>703</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="20">
         <v>18</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="22">
         <v>1158</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="20">
         <v>11</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="20">
         <v>4.5</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="20">
         <v>7.2</v>
       </c>
-      <c r="S32" s="6">
+      <c r="S32" s="34">
         <v>6045.9212946598545</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B33" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="A33" s="33">
+        <v>43612</v>
+      </c>
+      <c r="B33" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="20">
         <v>4</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="20">
         <v>10</v>
       </c>
-      <c r="F33" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G33" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H33" s="4">
-        <v>8</v>
-      </c>
-      <c r="I33" s="5">
+      <c r="F33" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G33" s="45">
+        <v>3.9</v>
+      </c>
+      <c r="H33" s="21">
+        <v>8</v>
+      </c>
+      <c r="I33" s="22">
         <v>130</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="22">
         <v>87</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="22">
         <v>137</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="22">
         <v>1093</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="22">
         <v>703</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="20">
         <v>18</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="22">
         <v>1158</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="20">
         <v>11</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="20">
         <v>4.5</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="20">
         <v>7.2</v>
       </c>
-      <c r="S33" s="6">
+      <c r="S33" s="34">
         <v>4866.2958617410304</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="A34" s="33">
+        <v>43612</v>
+      </c>
+      <c r="B34" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="20">
         <v>5</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="20">
         <v>11</v>
       </c>
-      <c r="F34" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G34" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H34" s="4">
-        <v>8</v>
-      </c>
-      <c r="I34" s="5">
+      <c r="F34" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G34" s="45">
+        <v>3.9</v>
+      </c>
+      <c r="H34" s="21">
+        <v>8</v>
+      </c>
+      <c r="I34" s="22">
         <v>135</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="22">
         <v>87</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="22">
         <v>137</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="22">
         <v>1137</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="22">
         <v>703</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="20">
         <v>18</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="22">
         <v>1158</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34" s="20">
         <v>11</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="Q34" s="20">
         <v>4.5</v>
       </c>
-      <c r="R34" s="3">
+      <c r="R34" s="20">
         <v>7.2</v>
       </c>
-      <c r="S34" s="6">
+      <c r="S34" s="34">
         <v>4633.7627608227904</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B35" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="A35" s="33">
+        <v>43612</v>
+      </c>
+      <c r="B35" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="20">
         <v>5</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="20">
         <v>12</v>
       </c>
-      <c r="F35" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G35" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H35" s="4">
-        <v>8</v>
-      </c>
-      <c r="I35" s="5">
+      <c r="F35" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G35" s="45">
+        <v>3.9</v>
+      </c>
+      <c r="H35" s="21">
+        <v>8</v>
+      </c>
+      <c r="I35" s="22">
         <v>136</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="22">
         <v>87</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="22">
         <v>137</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="22">
         <v>1146</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="22">
         <v>703</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="20">
         <v>18</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="22">
         <v>1158</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="20">
         <v>11</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="20">
         <v>4.5</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35" s="20">
         <v>7.2</v>
       </c>
-      <c r="S35" s="6">
+      <c r="S35" s="34">
         <v>4589.4863971562518</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B36" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="A36" s="33">
+        <v>43612</v>
+      </c>
+      <c r="B36" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="20">
         <v>5</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="20">
         <v>13</v>
       </c>
-      <c r="F36" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G36" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H36" s="4">
-        <v>8</v>
-      </c>
-      <c r="I36" s="5">
+      <c r="F36" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G36" s="45">
+        <v>3.9</v>
+      </c>
+      <c r="H36" s="21">
+        <v>8</v>
+      </c>
+      <c r="I36" s="22">
         <v>141</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="22">
         <v>137</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="22">
         <v>160</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="22">
         <v>1191</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="22">
         <v>1158</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="20">
         <v>11</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="22">
         <v>1368</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36" s="20">
         <v>13</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="Q36" s="20">
         <v>5.8</v>
       </c>
-      <c r="R36" s="3">
+      <c r="R36" s="20">
         <v>7.3</v>
       </c>
-      <c r="S36" s="6">
+      <c r="S36" s="34">
         <v>12868.254392857731</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="A37" s="33">
+        <v>43612</v>
+      </c>
+      <c r="B37" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="20">
         <v>5</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="20">
         <v>14</v>
       </c>
-      <c r="F37" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G37" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H37" s="4">
-        <v>8</v>
-      </c>
-      <c r="I37" s="5">
+      <c r="F37" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G37" s="45">
+        <v>3.9</v>
+      </c>
+      <c r="H37" s="21">
+        <v>8</v>
+      </c>
+      <c r="I37" s="22">
         <v>145</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="22">
         <v>137</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="22">
         <v>160</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="22">
         <v>1227</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="22">
         <v>1158</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="20">
         <v>11</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="22">
         <v>1368</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37" s="20">
         <v>13</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="Q37" s="20">
         <v>5.8</v>
       </c>
-      <c r="R37" s="3">
+      <c r="R37" s="20">
         <v>7.3</v>
       </c>
-      <c r="S37" s="6">
+      <c r="S37" s="34">
         <v>12396.088750157891</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
-        <v>43612</v>
-      </c>
-      <c r="B38" s="14">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="15">
+      <c r="A38" s="35">
+        <v>43612</v>
+      </c>
+      <c r="B38" s="23">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="24">
         <v>6</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="24">
         <v>15</v>
       </c>
-      <c r="F38" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G38" s="15">
-        <v>3.9</v>
-      </c>
-      <c r="H38" s="16">
-        <v>8</v>
-      </c>
-      <c r="I38" s="17">
+      <c r="F38" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G38" s="45">
+        <v>3.9</v>
+      </c>
+      <c r="H38" s="25">
+        <v>8</v>
+      </c>
+      <c r="I38" s="26">
         <v>189</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="26">
         <v>160</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="26">
         <v>222</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="26">
         <v>1634</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M38" s="26">
         <v>1368</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N38" s="24">
         <v>13</v>
       </c>
-      <c r="O38" s="17">
+      <c r="O38" s="26">
         <v>1947</v>
       </c>
-      <c r="P38" s="15">
+      <c r="P38" s="24">
         <v>11</v>
       </c>
-      <c r="Q38" s="15">
+      <c r="Q38" s="24">
         <v>3.5</v>
       </c>
-      <c r="R38" s="15">
+      <c r="R38" s="24">
         <v>5.2</v>
       </c>
-      <c r="S38" s="18">
+      <c r="S38" s="36">
         <v>12522.828213005983</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="13">
-        <v>43612</v>
-      </c>
-      <c r="B39" s="14">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="15">
+      <c r="A39" s="35">
+        <v>43612</v>
+      </c>
+      <c r="B39" s="23">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="24">
         <v>7</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="24">
         <v>16</v>
       </c>
-      <c r="F39" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G39" s="15">
-        <v>3.9</v>
-      </c>
-      <c r="H39" s="16">
-        <v>8</v>
-      </c>
-      <c r="I39" s="17">
+      <c r="F39" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G39" s="45">
+        <v>3.9</v>
+      </c>
+      <c r="H39" s="25">
+        <v>8</v>
+      </c>
+      <c r="I39" s="26">
         <v>194</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J39" s="26">
         <v>160</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="26">
         <v>222</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="26">
         <v>1679</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M39" s="26">
         <v>1368</v>
       </c>
-      <c r="N39" s="15">
+      <c r="N39" s="24">
         <v>13</v>
       </c>
-      <c r="O39" s="17">
+      <c r="O39" s="26">
         <v>1947</v>
       </c>
-      <c r="P39" s="15">
+      <c r="P39" s="24">
         <v>11</v>
       </c>
-      <c r="Q39" s="15">
+      <c r="Q39" s="24">
         <v>3.5</v>
       </c>
-      <c r="R39" s="15">
+      <c r="R39" s="24">
         <v>5.2</v>
       </c>
-      <c r="S39" s="18">
+      <c r="S39" s="36">
         <v>12116.616161880596</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
-        <v>43612</v>
-      </c>
-      <c r="B40" s="14">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="15">
-        <v>8</v>
-      </c>
-      <c r="E40" s="15">
+      <c r="A40" s="35">
+        <v>43612</v>
+      </c>
+      <c r="B40" s="23">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="24">
+        <v>8</v>
+      </c>
+      <c r="E40" s="24">
         <v>17</v>
       </c>
-      <c r="F40" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G40" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H40" s="16">
-        <v>8</v>
-      </c>
-      <c r="I40" s="17">
+      <c r="F40" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G40" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H40" s="25">
+        <v>8</v>
+      </c>
+      <c r="I40" s="26">
         <v>217</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="26">
         <v>160</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K40" s="26">
         <v>234</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L40" s="26">
         <v>1897</v>
       </c>
-      <c r="M40" s="17">
+      <c r="M40" s="26">
         <v>1368</v>
       </c>
-      <c r="N40" s="15">
+      <c r="N40" s="24">
         <v>13</v>
       </c>
-      <c r="O40" s="17">
+      <c r="O40" s="26">
         <v>2055</v>
       </c>
-      <c r="P40" s="15">
+      <c r="P40" s="24">
         <v>26</v>
       </c>
-      <c r="Q40" s="15">
+      <c r="Q40" s="24">
         <v>3.5</v>
       </c>
-      <c r="R40" s="15">
+      <c r="R40" s="24">
         <v>5.2</v>
       </c>
-      <c r="S40" s="18">
+      <c r="S40" s="36">
         <v>10501.343345103818</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
-        <v>43612</v>
-      </c>
-      <c r="B41" s="14">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="15">
-        <v>8</v>
-      </c>
-      <c r="E41" s="15">
+      <c r="A41" s="35">
+        <v>43612</v>
+      </c>
+      <c r="B41" s="23">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="24">
+        <v>8</v>
+      </c>
+      <c r="E41" s="24">
         <v>18</v>
       </c>
-      <c r="F41" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G41" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H41" s="16">
-        <v>8</v>
-      </c>
-      <c r="I41" s="17">
+      <c r="F41" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G41" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H41" s="25">
+        <v>8</v>
+      </c>
+      <c r="I41" s="26">
         <v>219</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="26">
         <v>160</v>
       </c>
-      <c r="K41" s="17">
+      <c r="K41" s="26">
         <v>234</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L41" s="26">
         <v>1917</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M41" s="26">
         <v>1368</v>
       </c>
-      <c r="N41" s="15">
+      <c r="N41" s="24">
         <v>13</v>
       </c>
-      <c r="O41" s="17">
+      <c r="O41" s="26">
         <v>2055</v>
       </c>
-      <c r="P41" s="15">
+      <c r="P41" s="24">
         <v>26</v>
       </c>
-      <c r="Q41" s="15">
+      <c r="Q41" s="24">
         <v>3.5</v>
       </c>
-      <c r="R41" s="15">
+      <c r="R41" s="24">
         <v>5.2</v>
       </c>
-      <c r="S41" s="18">
+      <c r="S41" s="36">
         <v>10377.988444334884</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
-        <v>43612</v>
-      </c>
-      <c r="B42" s="14">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="15">
+      <c r="A42" s="35">
+        <v>43612</v>
+      </c>
+      <c r="B42" s="23">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="24">
         <v>9</v>
       </c>
-      <c r="E42" s="15">
-        <v>19</v>
-      </c>
-      <c r="F42" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G42" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H42" s="16">
-        <v>8</v>
-      </c>
-      <c r="I42" s="17">
+      <c r="E42" s="24">
+        <v>19</v>
+      </c>
+      <c r="F42" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G42" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H42" s="25">
+        <v>8</v>
+      </c>
+      <c r="I42" s="26">
         <v>224</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42" s="26">
         <v>160</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K42" s="26">
         <v>234</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="26">
         <v>1967</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M42" s="26">
         <v>1368</v>
       </c>
-      <c r="N42" s="15">
+      <c r="N42" s="24">
         <v>13</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O42" s="26">
         <v>2055</v>
       </c>
-      <c r="P42" s="15">
+      <c r="P42" s="24">
         <v>26</v>
       </c>
-      <c r="Q42" s="15">
+      <c r="Q42" s="24">
         <v>3.5</v>
       </c>
-      <c r="R42" s="15">
+      <c r="R42" s="24">
         <v>5.2</v>
       </c>
-      <c r="S42" s="18">
+      <c r="S42" s="36">
         <v>10080.031996307938</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="13">
-        <v>43612</v>
-      </c>
-      <c r="B43" s="14">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="15">
+      <c r="A43" s="35">
+        <v>43612</v>
+      </c>
+      <c r="B43" s="23">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="24">
         <v>9</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="24">
         <v>20</v>
       </c>
-      <c r="F43" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G43" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H43" s="16">
-        <v>8</v>
-      </c>
-      <c r="I43" s="17">
+      <c r="F43" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G43" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H43" s="25">
+        <v>8</v>
+      </c>
+      <c r="I43" s="26">
         <v>226</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J43" s="26">
         <v>160</v>
       </c>
-      <c r="K43" s="17">
+      <c r="K43" s="26">
         <v>234</v>
       </c>
-      <c r="L43" s="17">
+      <c r="L43" s="26">
         <v>1985</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M43" s="26">
         <v>1368</v>
       </c>
-      <c r="N43" s="15">
+      <c r="N43" s="24">
         <v>13</v>
       </c>
-      <c r="O43" s="17">
+      <c r="O43" s="26">
         <v>2055</v>
       </c>
-      <c r="P43" s="15">
+      <c r="P43" s="24">
         <v>26</v>
       </c>
-      <c r="Q43" s="15">
+      <c r="Q43" s="24">
         <v>3.5</v>
       </c>
-      <c r="R43" s="15">
+      <c r="R43" s="24">
         <v>5.2</v>
       </c>
-      <c r="S43" s="18">
+      <c r="S43" s="36">
         <v>9970.0967403495088</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="13">
-        <v>43612</v>
-      </c>
-      <c r="B44" s="14">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="15">
+      <c r="A44" s="35">
+        <v>43612</v>
+      </c>
+      <c r="B44" s="23">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="24">
         <v>9</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="24">
         <v>21</v>
       </c>
-      <c r="F44" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G44" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H44" s="16">
-        <v>8</v>
-      </c>
-      <c r="I44" s="17">
+      <c r="F44" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G44" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H44" s="25">
+        <v>8</v>
+      </c>
+      <c r="I44" s="26">
         <v>227</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J44" s="26">
         <v>160</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="26">
         <v>234</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="26">
         <v>1994</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="26">
         <v>1368</v>
       </c>
-      <c r="N44" s="15">
+      <c r="N44" s="24">
         <v>13</v>
       </c>
-      <c r="O44" s="17">
+      <c r="O44" s="26">
         <v>2055</v>
       </c>
-      <c r="P44" s="15">
+      <c r="P44" s="24">
         <v>26</v>
       </c>
-      <c r="Q44" s="15">
+      <c r="Q44" s="24">
         <v>3.5</v>
       </c>
-      <c r="R44" s="15">
+      <c r="R44" s="24">
         <v>5.2</v>
       </c>
-      <c r="S44" s="18">
+      <c r="S44" s="36">
         <v>9918.0051652061902</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B45" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="A45" s="33">
+        <v>43612</v>
+      </c>
+      <c r="B45" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="20">
         <v>10</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="20">
         <v>22</v>
       </c>
-      <c r="F45" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G45" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H45" s="4">
-        <v>8</v>
-      </c>
-      <c r="I45" s="5">
+      <c r="F45" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G45" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H45" s="21">
+        <v>8</v>
+      </c>
+      <c r="I45" s="22">
         <v>239</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="22">
         <v>234</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="22">
         <v>315</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="22">
         <v>2101</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="22">
         <v>2055</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="20">
         <v>26</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45" s="22">
         <v>2807</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="20">
         <v>68</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="20">
         <v>6.6</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="20">
         <v>9</v>
       </c>
-      <c r="S45" s="6">
+      <c r="S45" s="34">
         <v>22041.492441999679</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B46" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="A46" s="33">
+        <v>43612</v>
+      </c>
+      <c r="B46" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="20">
         <v>11</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="20">
         <v>23</v>
       </c>
-      <c r="F46" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G46" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H46" s="4">
-        <v>8</v>
-      </c>
-      <c r="I46" s="5">
+      <c r="F46" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G46" s="45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H46" s="21">
+        <v>8</v>
+      </c>
+      <c r="I46" s="22">
         <v>264</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="22">
         <v>234</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="22">
         <v>315</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="22">
         <v>2331</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="22">
         <v>2055</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="20">
         <v>26</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46" s="22">
         <v>2807</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="20">
         <v>68</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="20">
         <v>6.6</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46" s="20">
         <v>9</v>
       </c>
-      <c r="S46" s="6">
+      <c r="S46" s="34">
         <v>19514.121270762811</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B47" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="3">
+    <row r="47" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="37">
+        <v>43612</v>
+      </c>
+      <c r="B47" s="38">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="39">
         <v>12</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="39">
         <v>24</v>
       </c>
-      <c r="F47" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G47" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H47" s="4">
-        <v>8</v>
-      </c>
-      <c r="I47" s="5">
+      <c r="F47" s="46">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G47" s="46">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H47" s="40">
+        <v>8</v>
+      </c>
+      <c r="I47" s="41">
         <v>289</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="41">
         <v>234</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="41">
         <v>315</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="41">
         <v>2574</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="41">
         <v>2055</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="39">
         <v>26</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="41">
         <v>2807</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="39">
         <v>68</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="39">
         <v>6.6</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="39">
         <v>9</v>
       </c>
-      <c r="S47" s="6">
+      <c r="S47" s="42">
         <v>17432.07866426211</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B48" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="A48" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B48" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="16">
         <v>3</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="16">
         <v>4</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="43">
         <v>5.9</v>
       </c>
-      <c r="G48" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H48" s="19">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="G48" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H48" s="17">
+        <v>8</v>
+      </c>
+      <c r="I48" s="16">
         <v>101</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="16">
         <v>87</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="16">
         <v>137</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="16">
         <v>826</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="16">
         <v>703</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="16">
         <v>18</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="16">
         <v>1158</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="16">
         <v>11</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="16">
         <v>4.5</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="16">
         <v>7.2</v>
       </c>
-      <c r="S48" s="6">
+      <c r="S48" s="18">
         <v>6926.3033895101717</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B49" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="A49" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B49" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="16">
         <v>3</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="16">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="43">
         <v>5.9</v>
       </c>
-      <c r="G49" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H49" s="19">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="G49" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H49" s="17">
+        <v>8</v>
+      </c>
+      <c r="I49" s="16">
         <v>103</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="16">
         <v>87</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="16">
         <v>137</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="16">
         <v>844</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="16">
         <v>703</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="16">
         <v>18</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="16">
         <v>1158</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="16">
         <v>11</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="16">
         <v>4.5</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="16">
         <v>7.2</v>
       </c>
-      <c r="S49" s="6">
+      <c r="S49" s="18">
         <v>6733.9178936653188</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B50" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="A50" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B50" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="16">
         <v>4</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="16">
         <v>6</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="43">
         <v>5.9</v>
       </c>
-      <c r="G50" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H50" s="19">
-        <v>8</v>
-      </c>
-      <c r="I50" s="3">
+      <c r="G50" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H50" s="17">
+        <v>8</v>
+      </c>
+      <c r="I50" s="16">
         <v>111</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="16">
         <v>87</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="16">
         <v>137</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="16">
         <v>920</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="16">
         <v>703</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50" s="16">
         <v>18</v>
       </c>
-      <c r="O50" s="3">
+      <c r="O50" s="16">
         <v>1158</v>
       </c>
-      <c r="P50" s="3">
+      <c r="P50" s="16">
         <v>11</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="Q50" s="16">
         <v>4.5</v>
       </c>
-      <c r="R50" s="3">
+      <c r="R50" s="16">
         <v>7.2</v>
       </c>
-      <c r="S50" s="6">
+      <c r="S50" s="18">
         <v>6045.9212946598545</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B51" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="A51" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B51" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="16">
         <v>5</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="16">
         <v>7</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="43">
         <v>5.9</v>
       </c>
-      <c r="G51" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H51" s="19">
-        <v>8</v>
-      </c>
-      <c r="I51" s="3">
+      <c r="G51" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H51" s="17">
+        <v>8</v>
+      </c>
+      <c r="I51" s="16">
         <v>130</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="16">
         <v>87</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="16">
         <v>137</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="16">
         <v>1093</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="16">
         <v>703</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="16">
         <v>18</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O51" s="16">
         <v>1158</v>
       </c>
-      <c r="P51" s="3">
+      <c r="P51" s="16">
         <v>11</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="Q51" s="16">
         <v>4.5</v>
       </c>
-      <c r="R51" s="3">
+      <c r="R51" s="16">
         <v>7.2</v>
       </c>
-      <c r="S51" s="6">
+      <c r="S51" s="18">
         <v>4866.2958617410304</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B52" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="3">
+      <c r="A52" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B52" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="16">
         <v>6</v>
       </c>
-      <c r="E52" s="3">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="E52" s="16">
+        <v>8</v>
+      </c>
+      <c r="F52" s="43">
         <v>5.9</v>
       </c>
-      <c r="G52" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H52" s="19">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="G52" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H52" s="17">
+        <v>8</v>
+      </c>
+      <c r="I52" s="16">
         <v>135</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="16">
         <v>87</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="16">
         <v>137</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="16">
         <v>1137</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="16">
         <v>703</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="16">
         <v>18</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="16">
         <v>1158</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="16">
         <v>11</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="16">
         <v>4.5</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="16">
         <v>7.2</v>
       </c>
-      <c r="S52" s="6">
+      <c r="S52" s="18">
         <v>4633.7627608227904</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B53" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="3">
+      <c r="A53" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B53" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="16">
         <v>7</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="16">
         <v>9</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="43">
         <v>5.9</v>
       </c>
-      <c r="G53" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H53" s="19">
-        <v>8</v>
-      </c>
-      <c r="I53" s="3">
+      <c r="G53" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H53" s="17">
+        <v>8</v>
+      </c>
+      <c r="I53" s="16">
         <v>141</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="16">
         <v>137</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="16">
         <v>160</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="16">
         <v>1191</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M53" s="16">
         <v>1158</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N53" s="16">
         <v>11</v>
       </c>
-      <c r="O53" s="3">
+      <c r="O53" s="16">
         <v>1368</v>
       </c>
-      <c r="P53" s="3">
+      <c r="P53" s="16">
         <v>13</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="Q53" s="16">
         <v>5.8</v>
       </c>
-      <c r="R53" s="3">
+      <c r="R53" s="16">
         <v>7.3</v>
       </c>
-      <c r="S53" s="6">
+      <c r="S53" s="18">
         <v>12868.254392857731</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B54" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="A54" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B54" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="16">
         <v>7</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="16">
         <v>10</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="43">
         <v>5.9</v>
       </c>
-      <c r="G54" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H54" s="19">
-        <v>8</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="G54" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H54" s="17">
+        <v>8</v>
+      </c>
+      <c r="I54" s="16">
         <v>145</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="16">
         <v>137</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="16">
         <v>160</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="16">
         <v>1227</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="16">
         <v>1158</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="16">
         <v>11</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="16">
         <v>1368</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="16">
         <v>13</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="16">
         <v>5.8</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="16">
         <v>7.3</v>
       </c>
-      <c r="S54" s="6">
+      <c r="S54" s="18">
         <v>12396.088750157891</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B55" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="3">
-        <v>8</v>
-      </c>
-      <c r="E55" s="3">
+      <c r="A55" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B55" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="16">
+        <v>8</v>
+      </c>
+      <c r="E55" s="16">
         <v>11</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="43">
         <v>5.9</v>
       </c>
-      <c r="G55" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H55" s="19">
-        <v>8</v>
-      </c>
-      <c r="I55" s="3">
+      <c r="G55" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H55" s="17">
+        <v>8</v>
+      </c>
+      <c r="I55" s="16">
         <v>189</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="16">
         <v>160</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="16">
         <v>222</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="16">
         <v>1634</v>
       </c>
-      <c r="M55" s="3">
+      <c r="M55" s="16">
         <v>1368</v>
       </c>
-      <c r="N55" s="3">
+      <c r="N55" s="16">
         <v>13</v>
       </c>
-      <c r="O55" s="3">
+      <c r="O55" s="16">
         <v>1947</v>
       </c>
-      <c r="P55" s="3">
+      <c r="P55" s="16">
         <v>11</v>
       </c>
-      <c r="Q55" s="3">
+      <c r="Q55" s="16">
         <v>3.5</v>
       </c>
-      <c r="R55" s="3">
+      <c r="R55" s="16">
         <v>5.2</v>
       </c>
-      <c r="S55" s="6">
+      <c r="S55" s="18">
         <v>12522.828213005983</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B56" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="A56" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B56" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="16">
         <v>9</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="16">
         <v>12</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="43">
         <v>5.9</v>
       </c>
-      <c r="G56" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H56" s="19">
-        <v>8</v>
-      </c>
-      <c r="I56" s="3">
+      <c r="G56" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H56" s="17">
+        <v>8</v>
+      </c>
+      <c r="I56" s="16">
         <v>217</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="16">
         <v>160</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="16">
         <v>234</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="16">
         <v>1897</v>
       </c>
-      <c r="M56" s="3">
+      <c r="M56" s="16">
         <v>1368</v>
       </c>
-      <c r="N56" s="3">
+      <c r="N56" s="16">
         <v>13</v>
       </c>
-      <c r="O56" s="3">
+      <c r="O56" s="16">
         <v>2055</v>
       </c>
-      <c r="P56" s="3">
+      <c r="P56" s="16">
         <v>26</v>
       </c>
-      <c r="Q56" s="3">
+      <c r="Q56" s="16">
         <v>3.5</v>
       </c>
-      <c r="R56" s="3">
+      <c r="R56" s="16">
         <v>5.2</v>
       </c>
-      <c r="S56" s="6">
+      <c r="S56" s="18">
         <v>10501.343345103818</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B57" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="3">
+      <c r="A57" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B57" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="16">
         <v>9</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="16">
         <v>13</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="43">
         <v>5.9</v>
       </c>
-      <c r="G57" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H57" s="19">
-        <v>8</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="G57" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H57" s="17">
+        <v>8</v>
+      </c>
+      <c r="I57" s="16">
         <v>219</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="16">
         <v>160</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="16">
         <v>234</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="16">
         <v>1917</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="16">
         <v>1368</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="16">
         <v>13</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="16">
         <v>2055</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="16">
         <v>26</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="16">
         <v>3.5</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="16">
         <v>5.2</v>
       </c>
-      <c r="S57" s="6">
+      <c r="S57" s="18">
         <v>10377.988444334884</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B58" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="3">
+      <c r="A58" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B58" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="16">
         <v>10</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="16">
         <v>14</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="43">
         <v>5.9</v>
       </c>
-      <c r="G58" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H58" s="19">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="G58" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H58" s="17">
+        <v>8</v>
+      </c>
+      <c r="I58" s="16">
         <v>224</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="16">
         <v>160</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="16">
         <v>234</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="16">
         <v>1967</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="16">
         <v>1368</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="16">
         <v>13</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="16">
         <v>2055</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="16">
         <v>26</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="16">
         <v>3.5</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="16">
         <v>5.2</v>
       </c>
-      <c r="S58" s="6">
+      <c r="S58" s="18">
         <v>10080.031996307938</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B59" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="3">
+      <c r="A59" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B59" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="16">
         <v>10</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="16">
         <v>15</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="43">
         <v>5.9</v>
       </c>
-      <c r="G59" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H59" s="19">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="G59" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H59" s="17">
+        <v>8</v>
+      </c>
+      <c r="I59" s="16">
         <v>227</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="16">
         <v>160</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="16">
         <v>234</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="16">
         <v>1994</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="16">
         <v>1368</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="16">
         <v>13</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="16">
         <v>2055</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="16">
         <v>26</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="16">
         <v>3.5</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="16">
         <v>5.2</v>
       </c>
-      <c r="S59" s="6">
+      <c r="S59" s="18">
         <v>9918.0051652061902</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B60" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="3">
+      <c r="A60" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B60" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="16">
         <v>11</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="16">
         <v>16</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="43">
         <v>5.9</v>
       </c>
-      <c r="G60" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H60" s="19">
-        <v>8</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="G60" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H60" s="17">
+        <v>8</v>
+      </c>
+      <c r="I60" s="16">
         <v>239</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="16">
         <v>234</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="16">
         <v>315</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="16">
         <v>2101</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="16">
         <v>2055</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="16">
         <v>26</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="16">
         <v>2807</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="16">
         <v>68</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="16">
         <v>6.6</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="16">
         <v>9</v>
       </c>
-      <c r="S60" s="6">
+      <c r="S60" s="18">
         <v>22041.492441999679</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B61" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="3">
+      <c r="A61" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B61" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="16">
         <v>12</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="16">
         <v>17</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="43">
         <v>5.9</v>
       </c>
-      <c r="G61" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H61" s="19">
-        <v>8</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="G61" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H61" s="17">
+        <v>8</v>
+      </c>
+      <c r="I61" s="16">
         <v>289</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61" s="16">
         <v>234</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="16">
         <v>315</v>
       </c>
-      <c r="L61" s="3">
+      <c r="L61" s="16">
         <v>2574</v>
       </c>
-      <c r="M61" s="3">
+      <c r="M61" s="16">
         <v>2055</v>
       </c>
-      <c r="N61" s="3">
+      <c r="N61" s="16">
         <v>26</v>
       </c>
-      <c r="O61" s="3">
+      <c r="O61" s="16">
         <v>2807</v>
       </c>
-      <c r="P61" s="3">
+      <c r="P61" s="16">
         <v>68</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="Q61" s="16">
         <v>6.6</v>
       </c>
-      <c r="R61" s="3">
+      <c r="R61" s="16">
         <v>9</v>
       </c>
-      <c r="S61" s="6">
+      <c r="S61" s="18">
         <v>17432.07866426211</v>
       </c>
     </row>
@@ -4100,13 +4362,13 @@
       <c r="E62" s="3">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="43">
         <v>6.9</v>
       </c>
-      <c r="G62" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H62" s="19">
+      <c r="G62" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H62" s="13">
         <v>8</v>
       </c>
       <c r="I62" s="3">
@@ -4159,13 +4421,13 @@
       <c r="E63" s="3">
         <v>5</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="43">
         <v>6.9</v>
       </c>
-      <c r="G63" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H63" s="19">
+      <c r="G63" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H63" s="13">
         <v>8</v>
       </c>
       <c r="I63" s="3">
@@ -4218,13 +4480,13 @@
       <c r="E64" s="3">
         <v>6</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="43">
         <v>6.9</v>
       </c>
-      <c r="G64" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H64" s="19">
+      <c r="G64" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H64" s="13">
         <v>8</v>
       </c>
       <c r="I64" s="3">
@@ -4277,13 +4539,13 @@
       <c r="E65" s="3">
         <v>7</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="43">
         <v>6.9</v>
       </c>
-      <c r="G65" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H65" s="19">
+      <c r="G65" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H65" s="13">
         <v>8</v>
       </c>
       <c r="I65" s="3">
@@ -4336,13 +4598,13 @@
       <c r="E66" s="3">
         <v>8</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="43">
         <v>6.9</v>
       </c>
-      <c r="G66" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H66" s="19">
+      <c r="G66" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H66" s="13">
         <v>8</v>
       </c>
       <c r="I66" s="3">
@@ -4395,13 +4657,13 @@
       <c r="E67" s="3">
         <v>9</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="43">
         <v>6.9</v>
       </c>
-      <c r="G67" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H67" s="19">
+      <c r="G67" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H67" s="13">
         <v>8</v>
       </c>
       <c r="I67" s="3">
@@ -4454,13 +4716,13 @@
       <c r="E68" s="3">
         <v>10</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="43">
         <v>6.9</v>
       </c>
-      <c r="G68" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H68" s="19">
+      <c r="G68" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H68" s="13">
         <v>8</v>
       </c>
       <c r="I68" s="3">
@@ -4513,13 +4775,13 @@
       <c r="E69" s="3">
         <v>11</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="43">
         <v>6.9</v>
       </c>
-      <c r="G69" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H69" s="19">
+      <c r="G69" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H69" s="13">
         <v>8</v>
       </c>
       <c r="I69" s="3">
@@ -4572,13 +4834,13 @@
       <c r="E70" s="3">
         <v>12</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="43">
         <v>6.9</v>
       </c>
-      <c r="G70" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H70" s="19">
+      <c r="G70" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H70" s="13">
         <v>8</v>
       </c>
       <c r="I70" s="3">
@@ -4631,13 +4893,13 @@
       <c r="E71" s="3">
         <v>13</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="43">
         <v>6.9</v>
       </c>
-      <c r="G71" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H71" s="19">
+      <c r="G71" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H71" s="13">
         <v>8</v>
       </c>
       <c r="I71" s="3">
@@ -4690,13 +4952,13 @@
       <c r="E72" s="3">
         <v>14</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="43">
         <v>6.9</v>
       </c>
-      <c r="G72" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H72" s="19">
+      <c r="G72" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H72" s="13">
         <v>8</v>
       </c>
       <c r="I72" s="3">
@@ -4749,13 +5011,13 @@
       <c r="E73" s="3">
         <v>15</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="43">
         <v>6.9</v>
       </c>
-      <c r="G73" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H73" s="19">
+      <c r="G73" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H73" s="13">
         <v>8</v>
       </c>
       <c r="I73" s="3">
@@ -4793,769 +5055,769 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B74" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="3">
+      <c r="A74" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B74" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="16">
         <v>3</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="16">
         <v>4</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="43">
         <v>7.9</v>
       </c>
-      <c r="G74" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H74" s="19">
-        <v>8</v>
-      </c>
-      <c r="I74" s="3">
+      <c r="G74" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H74" s="17">
+        <v>8</v>
+      </c>
+      <c r="I74" s="16">
         <v>130</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74" s="16">
         <v>87</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74" s="16">
         <v>137</v>
       </c>
-      <c r="L74" s="3">
+      <c r="L74" s="16">
         <v>1093</v>
       </c>
-      <c r="M74" s="3">
+      <c r="M74" s="16">
         <v>703</v>
       </c>
-      <c r="N74" s="3">
+      <c r="N74" s="16">
         <v>18</v>
       </c>
-      <c r="O74" s="3">
+      <c r="O74" s="16">
         <v>1158</v>
       </c>
-      <c r="P74" s="3">
+      <c r="P74" s="16">
         <v>11</v>
       </c>
-      <c r="Q74" s="3">
+      <c r="Q74" s="16">
         <v>4.5</v>
       </c>
-      <c r="R74" s="3">
+      <c r="R74" s="16">
         <v>7.2</v>
       </c>
-      <c r="S74" s="6">
+      <c r="S74" s="18">
         <v>4866.2958617410304</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B75" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="3">
+      <c r="A75" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B75" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="16">
         <v>4</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="16">
         <v>5</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="43">
         <v>7.9</v>
       </c>
-      <c r="G75" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H75" s="19">
-        <v>8</v>
-      </c>
-      <c r="I75" s="3">
+      <c r="G75" s="43">
+        <v>3.9</v>
+      </c>
+      <c r="H75" s="17">
+        <v>8</v>
+      </c>
+      <c r="I75" s="16">
         <v>135</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75" s="16">
         <v>87</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="16">
         <v>137</v>
       </c>
-      <c r="L75" s="3">
+      <c r="L75" s="16">
         <v>1137</v>
       </c>
-      <c r="M75" s="3">
+      <c r="M75" s="16">
         <v>703</v>
       </c>
-      <c r="N75" s="3">
+      <c r="N75" s="16">
         <v>18</v>
       </c>
-      <c r="O75" s="3">
+      <c r="O75" s="16">
         <v>1158</v>
       </c>
-      <c r="P75" s="3">
+      <c r="P75" s="16">
         <v>11</v>
       </c>
-      <c r="Q75" s="3">
+      <c r="Q75" s="16">
         <v>4.5</v>
       </c>
-      <c r="R75" s="3">
+      <c r="R75" s="16">
         <v>7.2</v>
       </c>
-      <c r="S75" s="6">
+      <c r="S75" s="18">
         <v>4633.7627608227904</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B76" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="3">
+      <c r="A76" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B76" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="16">
         <v>5</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="16">
         <v>6</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="43">
         <v>7.9</v>
       </c>
-      <c r="G76" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H76" s="19">
-        <v>8</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="G76" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H76" s="17">
+        <v>8</v>
+      </c>
+      <c r="I76" s="16">
         <v>217</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="16">
         <v>160</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="16">
         <v>234</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="16">
         <v>1897</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="16">
         <v>1368</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="16">
         <v>13</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="16">
         <v>2055</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="16">
         <v>26</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="16">
         <v>3.5</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="16">
         <v>5.2</v>
       </c>
-      <c r="S76" s="6">
+      <c r="S76" s="18">
         <v>10501.343345103818</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B77" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="3">
+      <c r="A77" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B77" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="16">
         <v>5</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="16">
         <v>7</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="43">
         <v>7.9</v>
       </c>
-      <c r="G77" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H77" s="19">
-        <v>8</v>
-      </c>
-      <c r="I77" s="3">
+      <c r="G77" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H77" s="17">
+        <v>8</v>
+      </c>
+      <c r="I77" s="16">
         <v>219</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77" s="16">
         <v>160</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77" s="16">
         <v>234</v>
       </c>
-      <c r="L77" s="3">
+      <c r="L77" s="16">
         <v>1917</v>
       </c>
-      <c r="M77" s="3">
+      <c r="M77" s="16">
         <v>1368</v>
       </c>
-      <c r="N77" s="3">
+      <c r="N77" s="16">
         <v>13</v>
       </c>
-      <c r="O77" s="3">
+      <c r="O77" s="16">
         <v>2055</v>
       </c>
-      <c r="P77" s="3">
+      <c r="P77" s="16">
         <v>26</v>
       </c>
-      <c r="Q77" s="3">
+      <c r="Q77" s="16">
         <v>3.5</v>
       </c>
-      <c r="R77" s="3">
+      <c r="R77" s="16">
         <v>5.2</v>
       </c>
-      <c r="S77" s="6">
+      <c r="S77" s="18">
         <v>10377.988444334884</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B78" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="3">
+      <c r="A78" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B78" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="16">
         <v>6</v>
       </c>
-      <c r="E78" s="3">
-        <v>8</v>
-      </c>
-      <c r="F78" s="3">
+      <c r="E78" s="16">
+        <v>8</v>
+      </c>
+      <c r="F78" s="43">
         <v>7.9</v>
       </c>
-      <c r="G78" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H78" s="19">
-        <v>8</v>
-      </c>
-      <c r="I78" s="3">
+      <c r="G78" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H78" s="17">
+        <v>8</v>
+      </c>
+      <c r="I78" s="16">
         <v>224</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="16">
         <v>160</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="16">
         <v>234</v>
       </c>
-      <c r="L78" s="3">
+      <c r="L78" s="16">
         <v>1967</v>
       </c>
-      <c r="M78" s="3">
+      <c r="M78" s="16">
         <v>1368</v>
       </c>
-      <c r="N78" s="3">
+      <c r="N78" s="16">
         <v>13</v>
       </c>
-      <c r="O78" s="3">
+      <c r="O78" s="16">
         <v>2055</v>
       </c>
-      <c r="P78" s="3">
+      <c r="P78" s="16">
         <v>26</v>
       </c>
-      <c r="Q78" s="3">
+      <c r="Q78" s="16">
         <v>3.5</v>
       </c>
-      <c r="R78" s="3">
+      <c r="R78" s="16">
         <v>5.2</v>
       </c>
-      <c r="S78" s="6">
+      <c r="S78" s="18">
         <v>10080.031996307938</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B79" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="3">
+      <c r="A79" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B79" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="16">
         <v>6</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="16">
         <v>9</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="43">
         <v>7.9</v>
       </c>
-      <c r="G79" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H79" s="19">
-        <v>8</v>
-      </c>
-      <c r="I79" s="3">
+      <c r="G79" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H79" s="17">
+        <v>8</v>
+      </c>
+      <c r="I79" s="16">
         <v>227</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79" s="16">
         <v>160</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K79" s="16">
         <v>234</v>
       </c>
-      <c r="L79" s="3">
+      <c r="L79" s="16">
         <v>1994</v>
       </c>
-      <c r="M79" s="3">
+      <c r="M79" s="16">
         <v>1368</v>
       </c>
-      <c r="N79" s="3">
+      <c r="N79" s="16">
         <v>13</v>
       </c>
-      <c r="O79" s="3">
+      <c r="O79" s="16">
         <v>2055</v>
       </c>
-      <c r="P79" s="3">
+      <c r="P79" s="16">
         <v>26</v>
       </c>
-      <c r="Q79" s="3">
+      <c r="Q79" s="16">
         <v>3.5</v>
       </c>
-      <c r="R79" s="3">
+      <c r="R79" s="16">
         <v>5.2</v>
       </c>
-      <c r="S79" s="6">
+      <c r="S79" s="18">
         <v>9918.0051652061902</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B80" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" s="3">
+      <c r="A80" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B80" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="16">
         <v>7</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="16">
         <v>10</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="43">
         <v>7.9</v>
       </c>
-      <c r="G80" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H80" s="19">
-        <v>8</v>
-      </c>
-      <c r="I80" s="3">
+      <c r="G80" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H80" s="17">
+        <v>8</v>
+      </c>
+      <c r="I80" s="16">
         <v>289</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80" s="16">
         <v>234</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="16">
         <v>315</v>
       </c>
-      <c r="L80" s="3">
+      <c r="L80" s="16">
         <v>2574</v>
       </c>
-      <c r="M80" s="3">
+      <c r="M80" s="16">
         <v>2055</v>
       </c>
-      <c r="N80" s="3">
+      <c r="N80" s="16">
         <v>26</v>
       </c>
-      <c r="O80" s="3">
+      <c r="O80" s="16">
         <v>2807</v>
       </c>
-      <c r="P80" s="3">
+      <c r="P80" s="16">
         <v>68</v>
       </c>
-      <c r="Q80" s="3">
+      <c r="Q80" s="16">
         <v>6.6</v>
       </c>
-      <c r="R80" s="3">
+      <c r="R80" s="16">
         <v>9</v>
       </c>
-      <c r="S80" s="6">
+      <c r="S80" s="18">
         <v>17432.07866426211</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B81" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="3">
-        <v>8</v>
-      </c>
-      <c r="E81" s="3">
+      <c r="A81" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B81" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="16">
+        <v>8</v>
+      </c>
+      <c r="E81" s="16">
         <v>11</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="43">
         <v>7.9</v>
       </c>
-      <c r="G81" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H81" s="19">
-        <v>8</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="G81" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H81" s="17">
+        <v>8</v>
+      </c>
+      <c r="I81" s="16">
         <v>320</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="16">
         <v>315</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="16">
         <v>346</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="16">
         <v>2856</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="16">
         <v>2807</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="16">
         <v>68</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81" s="16">
         <v>3101</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="16">
         <v>43</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="16">
         <v>15</v>
       </c>
-      <c r="R81" s="3">
+      <c r="R81" s="16">
         <v>36.299999999999997</v>
       </c>
-      <c r="S81" s="6">
+      <c r="S81" s="18">
         <v>29729.738053893147</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B82" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" s="3">
+      <c r="A82" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B82" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="16">
         <v>9</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="16">
         <v>12</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="43">
         <v>7.9</v>
       </c>
-      <c r="G82" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H82" s="19">
-        <v>8</v>
-      </c>
-      <c r="I82" s="3">
+      <c r="G82" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H82" s="17">
+        <v>8</v>
+      </c>
+      <c r="I82" s="16">
         <v>355</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82" s="16">
         <v>346</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K82" s="16">
         <v>388</v>
       </c>
-      <c r="L82" s="3">
+      <c r="L82" s="16">
         <v>3192</v>
       </c>
-      <c r="M82" s="3">
+      <c r="M82" s="16">
         <v>3101</v>
       </c>
-      <c r="N82" s="3">
+      <c r="N82" s="16">
         <v>43</v>
       </c>
-      <c r="O82" s="3">
+      <c r="O82" s="16">
         <v>3498</v>
       </c>
-      <c r="P82" s="3">
+      <c r="P82" s="16">
         <v>12</v>
       </c>
-      <c r="Q82" s="3">
+      <c r="Q82" s="16">
         <v>7.1</v>
       </c>
-      <c r="R82" s="3">
+      <c r="R82" s="16">
         <v>14.2</v>
       </c>
-      <c r="S82" s="6">
+      <c r="S82" s="18">
         <v>32273.590295276495</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B83" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="3">
+      <c r="A83" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B83" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="16">
         <v>9</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="16">
         <v>13</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="43">
         <v>7.9</v>
       </c>
-      <c r="G83" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H83" s="19">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="G83" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H83" s="17">
+        <v>8</v>
+      </c>
+      <c r="I83" s="16">
         <v>356</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="16">
         <v>346</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="16">
         <v>388</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="16">
         <v>3202</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="16">
         <v>3101</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="16">
         <v>43</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="16">
         <v>3498</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="16">
         <v>12</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="16">
         <v>7.1</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R83" s="16">
         <v>14.2</v>
       </c>
-      <c r="S83" s="6">
+      <c r="S83" s="18">
         <v>32162.435906700648</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B84" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="3">
+      <c r="A84" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B84" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="16">
         <v>10</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="16">
         <v>14</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="43">
         <v>7.9</v>
       </c>
-      <c r="G84" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H84" s="19">
-        <v>8</v>
-      </c>
-      <c r="I84" s="3">
+      <c r="G84" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H84" s="17">
+        <v>8</v>
+      </c>
+      <c r="I84" s="16">
         <v>390</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84" s="16">
         <v>388</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84" s="16">
         <v>416.5</v>
       </c>
-      <c r="L84" s="3">
+      <c r="L84" s="16">
         <v>3516</v>
       </c>
-      <c r="M84" s="3">
+      <c r="M84" s="16">
         <v>3498</v>
       </c>
-      <c r="N84" s="3">
+      <c r="N84" s="16">
         <v>12</v>
       </c>
-      <c r="O84" s="3">
+      <c r="O84" s="16">
         <v>3767</v>
       </c>
-      <c r="P84" s="3">
+      <c r="P84" s="16">
         <v>47</v>
       </c>
-      <c r="Q84" s="3">
+      <c r="Q84" s="16">
         <v>3.5</v>
       </c>
-      <c r="R84" s="3">
+      <c r="R84" s="16">
         <v>5</v>
       </c>
-      <c r="S84" s="6">
+      <c r="S84" s="18">
         <v>37169.367630248809</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B85" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="3">
+      <c r="A85" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B85" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="16">
         <v>11</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="16">
         <v>15</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="43">
         <v>7.9</v>
       </c>
-      <c r="G85" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H85" s="19">
-        <v>8</v>
-      </c>
-      <c r="I85" s="3">
+      <c r="G85" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H85" s="17">
+        <v>8</v>
+      </c>
+      <c r="I85" s="16">
         <v>417</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J85" s="16">
         <v>416.5</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K85" s="16">
         <v>457</v>
       </c>
-      <c r="L85" s="3">
+      <c r="L85" s="16">
         <v>3772</v>
       </c>
-      <c r="M85" s="3">
+      <c r="M85" s="16">
         <v>3767</v>
       </c>
-      <c r="N85" s="3">
+      <c r="N85" s="16">
         <v>47</v>
       </c>
-      <c r="O85" s="3">
+      <c r="O85" s="16">
         <v>4155</v>
       </c>
-      <c r="P85" s="3">
+      <c r="P85" s="16">
         <v>22</v>
       </c>
-      <c r="Q85" s="3">
+      <c r="Q85" s="16">
         <v>10.9</v>
       </c>
-      <c r="R85" s="3">
+      <c r="R85" s="16">
         <v>17.399999999999999</v>
       </c>
-      <c r="S85" s="6">
+      <c r="S85" s="18">
         <v>40069.040426458312</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>43612</v>
-      </c>
-      <c r="B86" s="2">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="3">
+      <c r="A86" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B86" s="15">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="16">
         <v>12</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="16">
         <v>16</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="43">
         <v>7.9</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="43">
         <v>5.9</v>
       </c>
-      <c r="H86" s="19">
-        <v>8</v>
-      </c>
-      <c r="I86" s="3">
+      <c r="H86" s="17">
+        <v>8</v>
+      </c>
+      <c r="I86" s="16">
         <v>508</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J86" s="16">
         <v>500</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86" s="16">
         <v>568</v>
       </c>
-      <c r="L86" s="3">
+      <c r="L86" s="16">
         <v>4636</v>
       </c>
-      <c r="M86" s="3">
+      <c r="M86" s="16">
         <v>4560</v>
       </c>
-      <c r="N86" s="3">
+      <c r="N86" s="16">
         <v>24</v>
       </c>
-      <c r="O86" s="3">
+      <c r="O86" s="16">
         <v>5207</v>
       </c>
-      <c r="P86" s="3">
+      <c r="P86" s="16">
         <v>48</v>
       </c>
-      <c r="Q86" s="3">
+      <c r="Q86" s="16">
         <v>3.1</v>
       </c>
-      <c r="R86" s="3">
+      <c r="R86" s="16">
         <v>5.6</v>
       </c>
-      <c r="S86" s="6">
+      <c r="S86" s="18">
         <v>47332.535619522787</v>
       </c>
     </row>
